--- a/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
+++ b/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
@@ -467,28 +467,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G2" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
         <v>414</v>
@@ -505,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0.93</v>
@@ -514,10 +514,10 @@
         <v>0.86</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="I3" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="G4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.57</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
         <v>0.84</v>
       </c>
       <c r="G5" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I5" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -615,25 +615,25 @@
         <v>62</v>
       </c>
       <c r="C7" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="G7" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0.63</v>
       </c>
       <c r="I7" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -641,28 +641,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G8" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -685,13 +685,13 @@
         <v>0.97</v>
       </c>
       <c r="G9" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0.63</v>
       </c>
       <c r="I9" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -786,16 +786,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>0.95</v>
@@ -804,10 +804,10 @@
         <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -847,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -859,13 +859,13 @@
         <v>0.99</v>
       </c>
       <c r="G15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
+++ b/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
@@ -467,28 +467,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -496,28 +496,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49</v>
+      </c>
+      <c r="E3" t="n">
         <v>62</v>
       </c>
-      <c r="C3" t="n">
-        <v>414</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="G3" t="n">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="I3" t="n">
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>323</v>
+        <v>404</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -583,28 +583,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G6" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -612,28 +612,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>475</v>
@@ -650,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G10" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -728,28 +728,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G11" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -757,28 +757,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>499</v>
+        <v>393</v>
       </c>
       <c r="D12" t="n">
+        <v>109</v>
+      </c>
+      <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -786,28 +786,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>0.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>504</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>0.99</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
+++ b/experiment/x_category_1_svm_ngrams/inspect/score.xlsx
@@ -467,28 +467,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -496,28 +496,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.63</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -583,28 +583,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -612,28 +612,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -641,28 +641,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -728,28 +728,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -757,28 +757,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="D12" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -786,28 +786,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>0.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -844,28 +844,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0.99</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
